--- a/Base de dados/d_linha_negocio.xlsx
+++ b/Base de dados/d_linha_negocio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloFerreira\OneDrive\Faculdades\Pós PUC-MINAS\TCC\TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloFerreira\OneDrive\Faculdades\Pós PUC-MINAS\TCC\TCC\Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C45A483-4E7E-4DDC-9FC6-FA3399D53E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561621F4-4A04-4703-BAAB-F3C8420C4559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19245" windowWidth="28800" windowHeight="11295" xr2:uid="{4F4FAD1C-FFB5-43D8-9A06-661B60E3FE1C}"/>
+    <workbookView xWindow="7245" yWindow="4260" windowWidth="28800" windowHeight="11295" xr2:uid="{4F4FAD1C-FFB5-43D8-9A06-661B60E3FE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="d_linha_negocio" sheetId="1" r:id="rId1"/>
@@ -68,10 +68,10 @@
     <t>303 - EDUCAÇÃO</t>
   </si>
   <si>
-    <t>_desc+_linha_negocio</t>
-  </si>
-  <si>
     <t>cod_linha_negocio</t>
+  </si>
+  <si>
+    <t>_desc_linha_negocio</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,15 +444,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>LEFT(B2,3)</f>
+      <c r="A2">
         <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -460,8 +459,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>LEFT(B3,3)</f>
+      <c r="A3">
         <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -469,8 +467,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>LEFT(B4,3)</f>
+      <c r="A4">
         <v>304</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -478,26 +475,23 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>LEFT(B5,3)</f>
-        <v>1 -</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>LEFT(B6,3)</f>
-        <v>4 -</v>
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>LEFT(B7,3)</f>
+      <c r="A7">
         <v>301</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -505,17 +499,15 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>LEFT(B8,3)</f>
-        <v>2 -</v>
+      <c r="A8">
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>LEFT(B9,3)</f>
+      <c r="A9">
         <v>307</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -523,8 +515,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>LEFT(B10,3)</f>
+      <c r="A10">
         <v>306</v>
       </c>
       <c r="B10" s="1" t="s">

--- a/Base de dados/d_linha_negocio.xlsx
+++ b/Base de dados/d_linha_negocio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PauloFerreira\OneDrive\Faculdades\Pós PUC-MINAS\TCC\TCC\Base de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561621F4-4A04-4703-BAAB-F3C8420C4559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03EE0BB-385E-4868-B8DB-46F436EFA116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="4260" windowWidth="28800" windowHeight="11295" xr2:uid="{4F4FAD1C-FFB5-43D8-9A06-661B60E3FE1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F4FAD1C-FFB5-43D8-9A06-661B60E3FE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="d_linha_negocio" sheetId="1" r:id="rId1"/>
@@ -41,37 +41,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>306 - COOPERAÇÃO SOCIAL</t>
-  </si>
-  <si>
-    <t>307 - SUPORTE AO NEGÓCIO</t>
-  </si>
-  <si>
-    <t>2 - DESENVOLVIMENTO INSTITUCIONAL</t>
-  </si>
-  <si>
-    <t>301 - DEFESA DE INTERESSE</t>
-  </si>
-  <si>
-    <t>4 - APOIO</t>
-  </si>
-  <si>
-    <t>1 - GESTÃO</t>
-  </si>
-  <si>
-    <t>304 - SAÚDE E SEGURANÇA NA INDÚSTRIA</t>
-  </si>
-  <si>
-    <t>302 - TECNOLOGIA E INOVAÇÃO</t>
-  </si>
-  <si>
-    <t>303 - EDUCAÇÃO</t>
-  </si>
-  <si>
     <t>cod_linha_negocio</t>
   </si>
   <si>
-    <t>_desc_linha_negocio</t>
+    <t>EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t>TECNOLOGIA E INOVAÇÃO</t>
+  </si>
+  <si>
+    <t>SAÚDE E SEGURANÇA NA INDÚSTRIA</t>
+  </si>
+  <si>
+    <t>GESTÃO</t>
+  </si>
+  <si>
+    <t>APOIO</t>
+  </si>
+  <si>
+    <t>DEFESA DE INTERESSE</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO INSTITUCIONAL</t>
+  </si>
+  <si>
+    <t>SUPORTE AO NEGÓCIO</t>
+  </si>
+  <si>
+    <t>COOPERAÇÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>desc_linha_negocio</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -455,7 +455,7 @@
         <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>304</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>301</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>307</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>306</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
